--- a/tests/px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/px2/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.9-alpha.1%2Bnb</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Pickles 2 Practice 1」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2018-03-23 17:07:39</t>
+    <t>Exported: 2018-04-20 20:19:47</t>
   </si>
   <si>
     <t>ページID</t>
@@ -134,6 +134,12 @@
     <t>/</t>
   </si>
   <si>
+    <t>home,sample,pickles2</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
     <t>Sample 001</t>
   </si>
   <si>
@@ -144,6 +150,18 @@
   </si>
   <si>
     <t>/sample2/</t>
+  </si>
+  <si>
+    <t>HELP 1</t>
+  </si>
+  <si>
+    <t>/help/</t>
+  </si>
+  <si>
+    <t>HELP 2</t>
+  </si>
+  <si>
+    <t>/help/2.html</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -631,7 +649,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -828,11 +846,17 @@
         <v>38</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="P9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -842,7 +866,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -852,15 +876,19 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -869,7 +897,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -879,43 +907,105 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="14" spans="1:21" customHeight="1" ht="5">
-      <c r="A14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+    <row r="12" spans="1:21">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="16" spans="1:21" customHeight="1" ht="5">
+      <c r="A16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/tests/px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/px2/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.9-alpha.1%2Bnb</t>
   </si>
   <si>
-    <t>「Pickles 2 Practice 1」 サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2018-04-20 20:19:47</t>
+    <t>「SHRED CARROT」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2018-04-22 02:57:45</t>
   </si>
   <si>
     <t>ページID</t>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>/sample1/</t>
+  </si>
+  <si>
+    <t>Sample 001-01</t>
+  </si>
+  <si>
+    <t>/sample1/1.html</t>
+  </si>
+  <si>
+    <t>Sample 001-02</t>
+  </si>
+  <si>
+    <t>/sample1/2.html</t>
+  </si>
+  <si>
+    <t>Sample 001-02-01</t>
+  </si>
+  <si>
+    <t>/sample1/2-1.html</t>
   </si>
   <si>
     <t>Sample 002</t>
@@ -649,7 +667,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -665,22 +683,23 @@
     <col min="3" max="3" width="3" customWidth="true" style="0"/>
     <col min="4" max="4" width="3" customWidth="true" style="0"/>
     <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="2" customWidth="true" style="0"/>
+    <col min="6" max="6" width="3" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20" customWidth="true" style="0"/>
     <col min="8" max="8" width="2" customWidth="true" style="0"/>
     <col min="9" max="9" width="2" customWidth="true" style="0"/>
     <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="40" customWidth="true" style="0"/>
-    <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="13" max="13" width="3" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9" customWidth="true" style="0"/>
+    <col min="11" max="11" width="2" customWidth="true" style="0"/>
+    <col min="12" max="12" width="40" customWidth="true" style="0"/>
+    <col min="13" max="13" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="18" max="18" width="30" customWidth="true" style="0"/>
     <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="30" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" customWidth="true" style="0"/>
-    <col min="18" max="18" width="3" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customHeight="1" ht="10">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,18 +723,19 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -726,53 +746,54 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -783,53 +804,54 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>37</v>
@@ -838,31 +860,32 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
@@ -871,147 +894,242 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="4">
+      <c r="R10" s="9"/>
+      <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>1</v>
       </c>
-      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="9"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="4">
-        <v>1</v>
-      </c>
+      <c r="R11" s="9"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>1</v>
       </c>
-      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="9"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>1</v>
       </c>
-      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-    </row>
-    <row r="16" spans="1:21" customHeight="1" ht="5">
-      <c r="A16" s="10" t="s">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="19" spans="1:22" customHeight="1" ht="5">
+      <c r="A19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/px2/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.9-alpha.1%2Bnb</t>
   </si>
@@ -140,9 +144,6 @@
     <t>Home Page</t>
   </si>
   <si>
-    <t>Sample 001</t>
-  </si>
-  <si>
     <t>/sample1/</t>
   </si>
   <si>
@@ -164,9 +165,6 @@
     <t>/sample1/2-1.html</t>
   </si>
   <si>
-    <t>Sample 002</t>
-  </si>
-  <si>
     <t>/sample2/</t>
   </si>
   <si>
@@ -183,57 +181,84 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>/sample3/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sample4/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SHRED CARROT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ニンジン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>セリ科</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パセリ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハーブ</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="メイリオ"/>
     </font>
   </fonts>
@@ -242,10 +267,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -261,19 +283,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -287,13 +315,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -301,13 +330,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -315,13 +345,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -329,51 +360,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -663,43 +684,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:V19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="2" customWidth="true" style="0"/>
-    <col min="12" max="12" width="40" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customHeight="1" ht="10">
+    <row r="1" spans="1:22" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +735,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="37">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -739,14 +749,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -797,14 +807,14 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -864,7 +874,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="L9" s="4" t="s">
         <v>38</v>
       </c>
@@ -872,7 +884,9 @@
       <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="9" t="s">
         <v>39</v>
@@ -889,7 +903,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -900,7 +914,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
@@ -922,7 +936,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -932,7 +946,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
@@ -952,7 +966,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -962,7 +976,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
@@ -983,7 +997,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -992,7 +1006,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
@@ -1011,7 +1025,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1022,7 +1036,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
@@ -1043,7 +1057,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1054,7 +1068,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
@@ -1064,7 +1078,9 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="4"/>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -1073,7 +1089,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1084,7 +1100,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
@@ -1094,53 +1110,112 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="4"/>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="19" spans="1:22" customHeight="1" ht="5">
-      <c r="A19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
+    <row r="17" spans="1:22">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="21" spans="1:22" ht="5" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>